--- a/Output/Decomposition_1999.xlsx
+++ b/Output/Decomposition_1999.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Dropbox\Apps\GitHub\Adopting-the-Euro-SCM\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Dropbox\Apps\GitHub\Euro-SCM-Replication-EJPE\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD03DD8-B690-47BE-AF69-39F57C4F6878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A1674A-3BDC-42E5-A819-65B9E574E825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1725" windowWidth="15165" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decomposition" sheetId="1" r:id="rId1"/>
@@ -2541,11 +2541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
@@ -3332,7 +3332,7 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3618,7 +3618,7 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
